--- a/NguPhapN5.xlsx
+++ b/NguPhapN5.xlsx
@@ -1,29 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DANG\studyingJapanese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\studyingJapanese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{640607C5-2315-48C9-B95A-B8DBD68C5660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{947EE592-9314-43C2-A383-AC651CF8617F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="139">
-  <si>
-    <t>～です/ですか/じゃない</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="246">
   <si>
     <t>～は</t>
   </si>
@@ -40,24 +51,9 @@
     <t>～を</t>
   </si>
   <si>
-    <t>～に /へ</t>
-  </si>
-  <si>
     <t>～に</t>
   </si>
   <si>
-    <t>～が/でも/けど</t>
-  </si>
-  <si>
-    <t>～から　～　まで</t>
-  </si>
-  <si>
-    <t>～あまり　～　ない</t>
-  </si>
-  <si>
-    <t>～ぜんぜん　～　ない</t>
-  </si>
-  <si>
     <t>～Ｖませんか</t>
   </si>
   <si>
@@ -67,9 +63,6 @@
     <t>～がいます</t>
   </si>
   <si>
-    <t>～助詞　＋　数量</t>
-  </si>
-  <si>
     <t>～に～回</t>
   </si>
   <si>
@@ -235,54 +228,12 @@
     <t>～ができる</t>
   </si>
   <si>
-    <t>Là / ~phải không/ không là</t>
-  </si>
-  <si>
-    <t>Thì / ở / chủ ngữ</t>
-  </si>
-  <si>
-    <t>Cũng / đến mức / đến cả</t>
-  </si>
-  <si>
-    <t>Của/ về</t>
-  </si>
-  <si>
-    <t>Tại/ ở/ vì/ bằng/ với</t>
-  </si>
-  <si>
-    <t>Trợ từ chỉ hành động</t>
-  </si>
-  <si>
-    <t>Chỉ phương hướng</t>
-  </si>
-  <si>
-    <t>Vào lúc / lúc / nơi diễn ra hđ</t>
-  </si>
-  <si>
-    <t>Nhưng</t>
-  </si>
-  <si>
     <t>Từ ~ đến ~</t>
   </si>
   <si>
-    <t>Không ~ lắm</t>
-  </si>
-  <si>
-    <t>Hoàn toàn ~ không</t>
-  </si>
-  <si>
     <t>Cùng nhau làm V nhé</t>
   </si>
   <si>
-    <t>Có ~ ( đồ vật/ cây)</t>
-  </si>
-  <si>
-    <t>Có ~ (động vật / người)</t>
-  </si>
-  <si>
-    <t>Từ để hỏi đi với động từ</t>
-  </si>
-  <si>
     <t>Làm ~ lần trong thời gian</t>
   </si>
   <si>
@@ -437,14 +388,2898 @@
   </si>
   <si>
     <t>Có thể làm</t>
+  </si>
+  <si>
+    <t>～です</t>
+  </si>
+  <si>
+    <r>
+      <t>わたしはがくせい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Tôi là học sinh.</t>
+    </r>
+  </si>
+  <si>
+    <t>～ですか</t>
+  </si>
+  <si>
+    <t>~ phải không</t>
+  </si>
+  <si>
+    <r>
+      <t>これはペン</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ですか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Đây là bút phải không?</t>
+    </r>
+  </si>
+  <si>
+    <t>～じゃない</t>
+  </si>
+  <si>
+    <t>Không là</t>
+  </si>
+  <si>
+    <r>
+      <t>かれはせんせい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>じゃない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Anh ấy không phải là giáo viên.</t>
+    </r>
+  </si>
+  <si>
+    <t>Chủ ngữ / chủ đề</t>
+  </si>
+  <si>
+    <r>
+      <t>わたし</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ベトナムじんです。&lt;br&gt;→ Tôi là người Việt Nam.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cũng</t>
+  </si>
+  <si>
+    <r>
+      <t>わたし</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>がくせいです。&lt;br&gt;→ Tôi cũng là học sinh.</t>
+    </r>
+  </si>
+  <si>
+    <t>Của / về</t>
+  </si>
+  <si>
+    <r>
+      <t>これはわたし</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ほんです。&lt;br&gt;→ Đây là sách của tôi.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tại / bằng</t>
+  </si>
+  <si>
+    <r>
+      <t>バス</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>がっこうへいきます。&lt;br&gt;→ Tôi đi đến trường bằng xe buýt.</t>
+    </r>
+  </si>
+  <si>
+    <t>Trợ từ hành động</t>
+  </si>
+  <si>
+    <r>
+      <t>パン</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>たべます。&lt;br&gt;→ Tôi ăn bánh mì.</t>
+    </r>
+  </si>
+  <si>
+    <t>～に / へ</t>
+  </si>
+  <si>
+    <t>Chỉ hướng</t>
+  </si>
+  <si>
+    <r>
+      <t>にほん</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>へ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いきます。&lt;br&gt;→ Tôi đi Nhật Bản.</t>
+    </r>
+  </si>
+  <si>
+    <t>Có (đồ vật)</t>
+  </si>
+  <si>
+    <r>
+      <t>にわにき</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>があります</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Có cây ở sân.</t>
+    </r>
+  </si>
+  <si>
+    <t>Có (người/động vật)</t>
+  </si>
+  <si>
+    <r>
+      <t>へやにねこ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>がいます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Có mèo trong phòng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>みず</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>だけ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のみます。&lt;br&gt;→ Tôi chỉ uống nước.</t>
+    </r>
+  </si>
+  <si>
+    <t>Muốn có</t>
+  </si>
+  <si>
+    <r>
+      <t>わたしはくるま</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>がほしい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です。&lt;br&gt;→ Tôi muốn có ô tô.</t>
+    </r>
+  </si>
+  <si>
+    <t>Muốn làm V</t>
+  </si>
+  <si>
+    <r>
+      <t>にほんへいってすし</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をたべたい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です。&lt;br&gt;→ Tôi muốn đến Nhật ăn sushi.</t>
+    </r>
+  </si>
+  <si>
+    <t>～Ｖてください</t>
+  </si>
+  <si>
+    <r>
+      <t>ここに</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>すわってください</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Hãy ngồi ở đây.</t>
+    </r>
+  </si>
+  <si>
+    <t>～Ｖないでください</t>
+  </si>
+  <si>
+    <r>
+      <t>ここで</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>たばこをすわないでください</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Đừng hút thuốc ở đây.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>いっしゅうかん</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>さん</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ジムへいきます。&lt;br&gt;→ Tôi đi tập gym 3 lần một tuần.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>スーパー</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>へ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>くだもの</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>かい**に行きます。&lt;br&gt;→ Tôi đi siêu thị để mua trái cây.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ドアを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>あけましょうか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Tôi mở cửa giúp nhé?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>きょうはくつを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>はかなくてもいいです</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Hôm nay không cần mang giày đâu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>しゅくだいを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>しないといけない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Tôi phải làm bài tập.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>いぬはねこ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ほど</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>かわいく</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Chó không dễ thương bằng mèo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>フルーツ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いちご</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>がいちばん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>おいしいです。&lt;br&gt;→ Trong các loại trái cây, dâu ngon nhất.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>うた</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をうたったり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、ダンス</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をしたりします</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Lúc thì hát, lúc thì nhảy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>にほんへ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いったことがあります</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Tôi đã từng đi Nhật.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>パン</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ごはん</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ラーメン</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>など</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>がすきです。&lt;br&gt;→ Tôi thích bánh mì, cơm, mì ramen, v.v.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>あしたはいいてんき</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でしょう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？&lt;br&gt;→ Mai chắc trời sẽ đẹp ha?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>かれは「ありがとう」と</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いいます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Anh ấy nói "cảm ơn".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>べんきょうした</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>あとで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、ゲームをします。&lt;br&gt;→ Sau khi học, tôi chơi game.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ともだちがてつだって</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>くれました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Bạn đã giúp tôi.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>せんせいにおしえて</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>もらいました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Tôi được thầy giáo giảng dạy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>にほんごが</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>わかります</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Tôi hiểu tiếng Nhật.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>それはいいアイデアだ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>とおもいます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Tôi nghĩ đó là một ý tưởng hay.</t>
+    </r>
+  </si>
+  <si>
+    <t>～も～ない</t>
+  </si>
+  <si>
+    <t>～ても／～でも</t>
+  </si>
+  <si>
+    <r>
+      <t>わたしはともだちにプレゼントを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>あげました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Tôi tặng quà cho bạn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>わたしはがくせい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Tôi là học sinh.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>これはペン</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ですか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Đây là bút phải không?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>かれはせんせい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>じゃない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Anh ấy không phải là giáo viên.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>わたし</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ベトナムじんです。→ Tôi là người Việt Nam.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>わたし</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>がくせいです。→ Tôi cũng là học sinh.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>これはわたし</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ほんです。→ Đây là sách của tôi.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>バス</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>がっこうへいきます。→ Tôi đi đến trường bằng xe buýt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>パン</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>たべます。→ Tôi ăn bánh mì.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>にほん</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>へ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いきます。→ Tôi đi Nhật Bản.</t>
+    </r>
+  </si>
+  <si>
+    <t>Thời gian / địa điểm</t>
+  </si>
+  <si>
+    <r>
+      <t>８じ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>おきます。→ Tôi dậy lúc 8 giờ.</t>
+    </r>
+  </si>
+  <si>
+    <t>Có (đồ vật, cây)</t>
+  </si>
+  <si>
+    <r>
+      <t>にわにき</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>があります</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Có cây ở sân.</t>
+    </r>
+  </si>
+  <si>
+    <t>Có (người, động vật)</t>
+  </si>
+  <si>
+    <r>
+      <t>へやにねこ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>がいます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Có mèo trong phòng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>みず</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>だけ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>のみます。→ Tôi chỉ uống nước.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>にほんへ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いって</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>すし</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をたべたい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>です。→ Tôi muốn đến Nhật ăn sushi.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>いっしょにえいが</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を見ませんか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？→ Cùng nhau xem phim nhé?</t>
+    </r>
+  </si>
+  <si>
+    <t>Hãy làm V nhé</t>
+  </si>
+  <si>
+    <r>
+      <t>でんわで</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>はなしましょう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Hãy nói chuyện qua điện thoại nhé.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tôi làm V cho bạn nhé</t>
+  </si>
+  <si>
+    <r>
+      <t>ドア</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をあけましょうか</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Tôi mở cửa giúp nhé?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ここに</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>すわってください</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Hãy ngồi ở đây.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>たばこ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をすわないでください</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Đừng hút thuốc.</t>
+    </r>
+  </si>
+  <si>
+    <t>Được làm V</t>
+  </si>
+  <si>
+    <r>
+      <t>このへや</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に入ってもいいです</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Vào phòng này cũng được.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ここで</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>たべてはいけません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Không được ăn ở đây.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>くつ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をはかなくてもいいです</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Không cần mang giày.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>しごと</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をしなければなりません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Phải làm việc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>しゅくだい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をしないといけない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Phải làm bài tập.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>レポート</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をださなくちゃいけない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Phải nộp báo cáo.</t>
+    </r>
+  </si>
+  <si>
+    <t>～から ～まで</t>
+  </si>
+  <si>
+    <r>
+      <t>９じ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>から</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>５じ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>まで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>はたらきます。→ Làm việc từ 9h đến 5h.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>いっしゅうかん</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>さん</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ジムへいきます。→ 1 tuần đi gym 3 lần.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>このくるまはあのくるま</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>より</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>はやいです。→ Xe này nhanh hơn xe kia.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>いぬはねこ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ほど</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>かわいく</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Chó không dễ thương bằng mèo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>フルーツ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いちご</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>がいちばん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>おいしいです。→ Dâu là ngon nhất.</t>
+    </r>
+  </si>
+  <si>
+    <t>～く/～になる</t>
+  </si>
+  <si>
+    <r>
+      <t>びょうき</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>がひどくなりました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Bệnh trở nên nặng hơn.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dù ~ cũng không</t>
+  </si>
+  <si>
+    <r>
+      <t>にほんへ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いってもしゃしんをとらなかった</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Đã đi Nhật nhưng không chụp ảnh.</t>
+    </r>
+  </si>
+  <si>
+    <t>～Ｖて、Ｖて、Ｖて</t>
+  </si>
+  <si>
+    <t>Làm V rồi V rồi V</t>
+  </si>
+  <si>
+    <r>
+      <t>こうえんへ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いって</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、ともだちに</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>あって</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、しゃしん</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をとりました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Đi công viên, gặp bạn và chụp ảnh.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>しごと</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が終わってから</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、かいものへいきます。→ Sau khi làm xong, tôi đi mua sắm.</t>
+    </r>
+  </si>
+  <si>
+    <t>Lúc thì ~ lúc thì ~</t>
+  </si>
+  <si>
+    <r>
+      <t>うた</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をうたったり</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ダンス</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をしたりします</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Lúc thì hát, lúc thì nhảy.</t>
+    </r>
+  </si>
+  <si>
+    <t>Đang làm, đã làm</t>
+  </si>
+  <si>
+    <r>
+      <t>べんきょう</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>しています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Tôi đang học.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>にほんへ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>いったことがあります</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Tôi đã từng đi Nhật.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>すし</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をたべないことがあります</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Tôi chưa từng ăn sushi.</t>
+    </r>
+  </si>
+  <si>
+    <t>Và ~ và ~ còn nữa</t>
+  </si>
+  <si>
+    <r>
+      <t>パン</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ごはん</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ラーメン</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>など</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>がすきです。→ Tôi thích bánh mì, cơm, mì ramen,…</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>あめ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>なので</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でかけません。→ Vì trời mưa nên không đi đâu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>あしたはいいてんき</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でしょう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>？→ Mai chắc trời sẽ đẹp ha?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>たぶんかれはこない</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でしょう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Chắc anh ấy sẽ không đến.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>それはいいアイデアだ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>とおもいます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Tôi nghĩ đó là một ý tưởng hay.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>かれは「ありがとう」</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>といいます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Anh ấy nói "cảm ơn".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>かれは「いきます」</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>といいました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Anh ấy đã nói "tôi sẽ đi".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ごはん</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をたべるまえに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>てをあらいます。→ Rửa tay trước khi ăn cơm.</t>
+    </r>
+  </si>
+  <si>
+    <t>Lúc / khi</t>
+  </si>
+  <si>
+    <r>
+      <t>ねる</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>とき</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>にほん</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をよみます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Tôi đọc sách lúc đi ngủ.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sau khi ~</t>
+  </si>
+  <si>
+    <r>
+      <t>べんきょうした</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>あとで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ゲームをします。→ Sau khi học tôi chơi game.</t>
+    </r>
+  </si>
+  <si>
+    <t>Trước thời điểm</t>
+  </si>
+  <si>
+    <r>
+      <t>ごご３じ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>までに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>レポートをだします。→ Nộp báo cáo trước 3 giờ chiều.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ボタン</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>をおすと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ドアがあきます。→ Hễ bấm nút thì cửa mở.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>さむく</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ても</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>さんぽします。&lt;br&gt;→ Dù trời lạnh, tôi vẫn đi dạo.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>おかねがあっ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>たら</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>、りょこうします。&lt;br&gt;→ Nếu có tiền, tôi sẽ đi du lịch.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>せんせいにおしえて</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>もらいました</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Tôi được thầy giáo giảng bài cho.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>かれはがくせい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>でしょう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Có lẽ anh ấy là học sinh.&lt;br&gt;かれはがくせい</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>だろう</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。→ Anh ấy chắc là học sinh.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>わたしはエンジニア</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>である</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Tôi là kỹ sư.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ともだち</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>えいがをみます。&lt;br&gt;→ Tôi xem phim cùng với bạn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ギターを</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ひくことができます</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。&lt;br&gt;→ Tôi có thể chơi guitar.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -472,8 +3307,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -778,588 +3616,1372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B72" sqref="B63:B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C22" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C23" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C24" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C25" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C26" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C27" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C28" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C31" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C32" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C33" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DA19AB-88C6-4BCD-8B0B-8FBB86EAB8FD}">
+  <dimension ref="A1:D60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="43.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="str">
+        <f>B1&amp;" \n"&amp;C1</f>
+        <v>Là \nわたしはがくせいです。→ Tôi là học sinh.</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>109</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
